--- a/京澳中心汇聚端口占用表.xlsx
+++ b/京澳中心汇聚端口占用表.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A1端截面图" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A2端截面图" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A3端截面图" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="A5端截面图" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B1端截面图" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1端截面图" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C3端截面图" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C4端截面图" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C5端截面图" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E1端截面图" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F1端截面图" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F3端截面图" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODFC6端截面图" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODFD5端截面图" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="A1端截面图" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="A2端截面图" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="A3端截面图" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="A5端截面图" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="B1端截面图" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C1端截面图" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="C3端截面图" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="C4端截面图" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="C5端截面图" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="E1端截面图" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="F1端截面图" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="F3端截面图" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ODFC6端截面图" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ODFD5端截面图" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-A1</t>
+          <t>京澳中心汇聚端口占用表.xlsx-A1</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -4390,7 +4390,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-E1</t>
+          <t>京澳中心汇聚端口占用表.xlsx-E1</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -5287,7 +5287,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-F1</t>
+          <t>京澳中心汇聚端口占用表.xlsx-F1</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -6398,7 +6398,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-F3</t>
+          <t>京澳中心汇聚端口占用表.xlsx-F3</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -7723,7 +7723,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-ODFC6</t>
+          <t>京澳中心汇聚端口占用表.xlsx-ODFC6</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -11616,7 +11616,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-ODFD5</t>
+          <t>京澳中心汇聚端口占用表.xlsx-ODFD5</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -14867,7 +14867,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-A2</t>
+          <t>京澳中心汇聚端口占用表.xlsx-A2</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -23896,7 +23896,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-A3</t>
+          <t>京澳中心汇聚端口占用表.xlsx-A3</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -26077,7 +26077,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-A5</t>
+          <t>京澳中心汇聚端口占用表.xlsx-A5</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -26332,7 +26332,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-B1</t>
+          <t>京澳中心汇聚端口占用表.xlsx-B1</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -27015,7 +27015,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-C1</t>
+          <t>京澳中心汇聚端口占用表.xlsx-C1</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -27270,7 +27270,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-C3</t>
+          <t>京澳中心汇聚端口占用表.xlsx-C3</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -27418,7 +27418,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-C4</t>
+          <t>京澳中心汇聚端口占用表.xlsx-C4</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
@@ -28529,7 +28529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>京澳中心汇聚-C5</t>
+          <t>京澳中心汇聚端口占用表.xlsx-C5</t>
         </is>
       </c>
       <c r="B1" s="6" t="n"/>
